--- a/2022/Symphony/SEPTEMBER/12.09.2022/MC Bank Statement Sep-2022.xlsx
+++ b/2022/Symphony/SEPTEMBER/12.09.2022/MC Bank Statement Sep-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="243">
   <si>
     <t>Date</t>
   </si>
@@ -675,9 +675,6 @@
   </si>
   <si>
     <t>04.09.2022</t>
-  </si>
-  <si>
-    <t>04.09.20222</t>
   </si>
   <si>
     <t>Jonail</t>
@@ -3200,6 +3197,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3231,12 +3234,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5316,7 +5313,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="350"/>
       <c r="B10" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="249">
         <v>600000</v>
@@ -5334,7 +5331,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="350"/>
       <c r="B11" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="247">
         <v>600000</v>
@@ -5352,7 +5349,7 @@
     <row r="12" spans="1:7">
       <c r="A12" s="350"/>
       <c r="B12" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="247">
         <v>400000</v>
@@ -5370,7 +5367,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="350"/>
       <c r="B13" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="247">
         <v>150000</v>
@@ -5388,7 +5385,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="350"/>
       <c r="B14" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C14" s="247">
         <v>0</v>
@@ -5405,7 +5402,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="350"/>
       <c r="B15" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C15" s="247">
         <v>600000</v>
@@ -5423,7 +5420,7 @@
     <row r="16" spans="1:7">
       <c r="A16" s="350"/>
       <c r="B16" s="26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" s="247">
         <v>500000</v>
@@ -6291,67 +6288,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="355" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="353"/>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
-      <c r="F1" s="353"/>
-      <c r="G1" s="353"/>
-      <c r="H1" s="353"/>
-      <c r="I1" s="353"/>
-      <c r="J1" s="353"/>
-      <c r="K1" s="353"/>
-      <c r="L1" s="353"/>
-      <c r="M1" s="353"/>
-      <c r="N1" s="353"/>
-      <c r="O1" s="353"/>
-      <c r="P1" s="353"/>
-      <c r="Q1" s="353"/>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="355"/>
+      <c r="H1" s="355"/>
+      <c r="I1" s="355"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
+      <c r="O1" s="355"/>
+      <c r="P1" s="355"/>
+      <c r="Q1" s="355"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="354" t="s">
+      <c r="A2" s="356" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="354"/>
-      <c r="C2" s="354"/>
-      <c r="D2" s="354"/>
-      <c r="E2" s="354"/>
-      <c r="F2" s="354"/>
-      <c r="G2" s="354"/>
-      <c r="H2" s="354"/>
-      <c r="I2" s="354"/>
-      <c r="J2" s="354"/>
-      <c r="K2" s="354"/>
-      <c r="L2" s="354"/>
-      <c r="M2" s="354"/>
-      <c r="N2" s="354"/>
-      <c r="O2" s="354"/>
-      <c r="P2" s="354"/>
-      <c r="Q2" s="354"/>
+      <c r="B2" s="356"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
+      <c r="F2" s="356"/>
+      <c r="G2" s="356"/>
+      <c r="H2" s="356"/>
+      <c r="I2" s="356"/>
+      <c r="J2" s="356"/>
+      <c r="K2" s="356"/>
+      <c r="L2" s="356"/>
+      <c r="M2" s="356"/>
+      <c r="N2" s="356"/>
+      <c r="O2" s="356"/>
+      <c r="P2" s="356"/>
+      <c r="Q2" s="356"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="355" t="s">
+      <c r="A3" s="357" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="356"/>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="356"/>
-      <c r="G3" s="356"/>
-      <c r="H3" s="356"/>
-      <c r="I3" s="356"/>
-      <c r="J3" s="356"/>
-      <c r="K3" s="356"/>
-      <c r="L3" s="356"/>
-      <c r="M3" s="356"/>
-      <c r="N3" s="356"/>
-      <c r="O3" s="356"/>
-      <c r="P3" s="356"/>
-      <c r="Q3" s="357"/>
+      <c r="B3" s="358"/>
+      <c r="C3" s="358"/>
+      <c r="D3" s="358"/>
+      <c r="E3" s="358"/>
+      <c r="F3" s="358"/>
+      <c r="G3" s="358"/>
+      <c r="H3" s="358"/>
+      <c r="I3" s="358"/>
+      <c r="J3" s="358"/>
+      <c r="K3" s="358"/>
+      <c r="L3" s="358"/>
+      <c r="M3" s="358"/>
+      <c r="N3" s="358"/>
+      <c r="O3" s="358"/>
+      <c r="P3" s="358"/>
+      <c r="Q3" s="359"/>
       <c r="S3" s="50"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6360,49 +6357,49 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="358" t="s">
+      <c r="A4" s="360" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="360" t="s">
+      <c r="B4" s="362" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="362" t="s">
+      <c r="C4" s="351" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="362" t="s">
+      <c r="D4" s="351" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="362" t="s">
+      <c r="E4" s="351" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="362" t="s">
+      <c r="F4" s="351" t="s">
         <v>119</v>
       </c>
-      <c r="G4" s="362" t="s">
+      <c r="G4" s="351" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="362" t="s">
+      <c r="H4" s="351" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="362" t="s">
+      <c r="I4" s="351" t="s">
         <v>166</v>
       </c>
-      <c r="J4" s="362" t="s">
+      <c r="J4" s="351" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="362" t="s">
+      <c r="K4" s="351" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="362" t="s">
+      <c r="L4" s="351" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="362" t="s">
+      <c r="M4" s="351" t="s">
         <v>172</v>
       </c>
-      <c r="N4" s="362" t="s">
+      <c r="N4" s="351" t="s">
         <v>124</v>
       </c>
-      <c r="O4" s="351" t="s">
+      <c r="O4" s="353" t="s">
         <v>38</v>
       </c>
       <c r="P4" s="364" t="s">
@@ -6418,21 +6415,21 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="359"/>
-      <c r="B5" s="361"/>
-      <c r="C5" s="363"/>
-      <c r="D5" s="363"/>
-      <c r="E5" s="363"/>
-      <c r="F5" s="363"/>
-      <c r="G5" s="363"/>
-      <c r="H5" s="363"/>
-      <c r="I5" s="363"/>
-      <c r="J5" s="363"/>
-      <c r="K5" s="363"/>
-      <c r="L5" s="363"/>
-      <c r="M5" s="363"/>
-      <c r="N5" s="363"/>
-      <c r="O5" s="352"/>
+      <c r="A5" s="361"/>
+      <c r="B5" s="363"/>
+      <c r="C5" s="352"/>
+      <c r="D5" s="352"/>
+      <c r="E5" s="352"/>
+      <c r="F5" s="352"/>
+      <c r="G5" s="352"/>
+      <c r="H5" s="352"/>
+      <c r="I5" s="352"/>
+      <c r="J5" s="352"/>
+      <c r="K5" s="352"/>
+      <c r="L5" s="352"/>
+      <c r="M5" s="352"/>
+      <c r="N5" s="352"/>
+      <c r="O5" s="354"/>
       <c r="P5" s="365"/>
       <c r="Q5" s="126" t="s">
         <v>39</v>
@@ -6570,7 +6567,7 @@
     </row>
     <row r="9" spans="1:24" s="13" customFormat="1">
       <c r="A9" s="74" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="82">
         <v>1200</v>
@@ -6608,7 +6605,7 @@
     </row>
     <row r="10" spans="1:24" s="13" customFormat="1">
       <c r="A10" s="74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="82">
         <v>1200</v>
@@ -6648,7 +6645,7 @@
     </row>
     <row r="11" spans="1:24" s="13" customFormat="1">
       <c r="A11" s="74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="82">
         <v>700</v>
@@ -6688,7 +6685,7 @@
     </row>
     <row r="12" spans="1:24" s="13" customFormat="1">
       <c r="A12" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12" s="82">
         <v>700</v>
@@ -6726,7 +6723,7 @@
     </row>
     <row r="13" spans="1:24" s="13" customFormat="1">
       <c r="A13" s="74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13" s="82">
         <v>1300</v>
@@ -6764,7 +6761,7 @@
     </row>
     <row r="14" spans="1:24" s="13" customFormat="1">
       <c r="A14" s="74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="82">
         <v>700</v>
@@ -6804,7 +6801,7 @@
     </row>
     <row r="15" spans="1:24" s="13" customFormat="1">
       <c r="A15" s="74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" s="82">
         <v>900</v>
@@ -9440,6 +9437,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9456,9 +9456,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9472,8 +9469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10247,7 +10244,7 @@
     </row>
     <row r="8" spans="1:97">
       <c r="A8" s="181" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="49">
         <v>435780</v>
@@ -10357,7 +10354,7 @@
     </row>
     <row r="9" spans="1:97">
       <c r="A9" s="181" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B9" s="49">
         <v>324450</v>
@@ -10467,7 +10464,7 @@
     </row>
     <row r="10" spans="1:97">
       <c r="A10" s="181" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B10" s="49">
         <v>507370</v>
@@ -10577,7 +10574,7 @@
     </row>
     <row r="11" spans="1:97">
       <c r="A11" s="181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B11" s="49">
         <v>1327860</v>
@@ -10687,7 +10684,7 @@
     </row>
     <row r="12" spans="1:97">
       <c r="A12" s="181" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" s="49">
         <v>620480</v>
@@ -10797,7 +10794,7 @@
     </row>
     <row r="13" spans="1:97">
       <c r="A13" s="181" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="49">
         <v>593760</v>
@@ -10907,20 +10904,20 @@
     </row>
     <row r="14" spans="1:97">
       <c r="A14" s="181" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B14" s="49">
         <v>530890</v>
       </c>
       <c r="C14" s="52">
-        <v>478710</v>
+        <v>502840</v>
       </c>
       <c r="D14" s="49">
         <v>2970</v>
       </c>
       <c r="E14" s="49">
         <f t="shared" si="0"/>
-        <v>481680</v>
+        <v>505810</v>
       </c>
       <c r="F14" s="228"/>
       <c r="G14" s="237"/>
@@ -12861,7 +12858,7 @@
       </c>
       <c r="C33" s="252">
         <f>SUM(C5:C32)</f>
-        <v>4691060</v>
+        <v>4715190</v>
       </c>
       <c r="D33" s="251">
         <f>SUM(D5:D32)</f>
@@ -12869,11 +12866,11 @@
       </c>
       <c r="E33" s="251">
         <f>SUM(E5:E32)</f>
-        <v>4715340</v>
+        <v>4739470</v>
       </c>
       <c r="F33" s="251">
         <f>B33-E33</f>
-        <v>1068560</v>
+        <v>1044430</v>
       </c>
       <c r="G33" s="253"/>
       <c r="H33" s="138"/>
@@ -13402,7 +13399,7 @@
         <v>11140</v>
       </c>
       <c r="E38" s="175" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F38" s="131"/>
       <c r="G38" s="138"/>
@@ -14254,7 +14251,7 @@
         <v>400000</v>
       </c>
       <c r="E46" s="297" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F46" s="130"/>
       <c r="G46" s="137"/>
@@ -14376,7 +14373,7 @@
         <v>286000</v>
       </c>
       <c r="E47" s="301" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F47" s="131"/>
       <c r="G47" s="137"/>
@@ -14498,7 +14495,7 @@
         <v>382330</v>
       </c>
       <c r="E48" s="303" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F48" s="131"/>
       <c r="G48" s="137"/>
@@ -14620,7 +14617,7 @@
         <v>515910</v>
       </c>
       <c r="E49" s="301" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F49" s="131"/>
       <c r="G49" s="137"/>
@@ -14739,10 +14736,10 @@
         <v>1723246584</v>
       </c>
       <c r="D50" s="300">
-        <v>127700</v>
+        <v>118570</v>
       </c>
       <c r="E50" s="303" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="F50" s="131"/>
       <c r="G50" s="137"/>
@@ -14862,7 +14859,7 @@
         <v>24000</v>
       </c>
       <c r="E51" s="305" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F51" s="131"/>
       <c r="G51" s="137"/>
@@ -14981,10 +14978,10 @@
         <v>1725821212</v>
       </c>
       <c r="D52" s="300">
-        <v>94670</v>
+        <v>79670</v>
       </c>
       <c r="E52" s="303" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F52" s="131"/>
       <c r="G52" s="137"/>
@@ -15104,7 +15101,7 @@
         <v>116230</v>
       </c>
       <c r="E53" s="301" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F53" s="131"/>
       <c r="G53" s="137"/>
@@ -15214,17 +15211,17 @@
     </row>
     <row r="54" spans="1:97">
       <c r="A54" s="293" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" s="307" t="s">
         <v>233</v>
-      </c>
-      <c r="B54" s="307" t="s">
-        <v>234</v>
       </c>
       <c r="C54" s="299"/>
       <c r="D54" s="308">
         <v>55660</v>
       </c>
       <c r="E54" s="303" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F54" s="131"/>
       <c r="G54" s="137"/>
@@ -15684,7 +15681,7 @@
         <v>97210</v>
       </c>
       <c r="E58" s="310" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F58" s="131"/>
       <c r="G58" s="137"/>
@@ -15794,17 +15791,17 @@
     </row>
     <row r="59" spans="1:97">
       <c r="A59" s="287" t="s">
+        <v>206</v>
+      </c>
+      <c r="B59" s="288" t="s">
         <v>207</v>
-      </c>
-      <c r="B59" s="288" t="s">
-        <v>208</v>
       </c>
       <c r="C59" s="289"/>
       <c r="D59" s="290">
         <v>15370</v>
       </c>
       <c r="E59" s="310" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F59" s="131"/>
       <c r="G59" s="137"/>
@@ -16414,7 +16411,7 @@
         <v>12000</v>
       </c>
       <c r="E64" s="310" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F64" s="131"/>
       <c r="G64" s="137"/>
@@ -16646,7 +16643,7 @@
     </row>
     <row r="66" spans="1:97">
       <c r="A66" s="287" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B66" s="292" t="s">
         <v>190</v>
@@ -16656,7 +16653,7 @@
         <v>39000</v>
       </c>
       <c r="E66" s="310" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F66" s="131"/>
       <c r="G66" s="137"/>
@@ -16767,14 +16764,14 @@
     <row r="67" spans="1:97">
       <c r="A67" s="287"/>
       <c r="B67" s="288" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C67" s="289"/>
       <c r="D67" s="290">
         <v>1080</v>
       </c>
       <c r="E67" s="291" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F67" s="131"/>
       <c r="G67" s="137"/>
@@ -17458,17 +17455,17 @@
     </row>
     <row r="73" spans="1:97">
       <c r="A73" s="312" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="323" t="s">
         <v>212</v>
-      </c>
-      <c r="B73" s="323" t="s">
-        <v>213</v>
       </c>
       <c r="C73" s="320"/>
       <c r="D73" s="315">
         <v>8000</v>
       </c>
       <c r="E73" s="317" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F73" s="133"/>
       <c r="G73" s="137"/>
@@ -17576,17 +17573,17 @@
     </row>
     <row r="74" spans="1:97">
       <c r="A74" s="312" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" s="323" t="s">
         <v>201</v>
-      </c>
-      <c r="B74" s="323" t="s">
-        <v>202</v>
       </c>
       <c r="C74" s="314"/>
       <c r="D74" s="315">
         <v>32800</v>
       </c>
       <c r="E74" s="317" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F74" s="133"/>
       <c r="G74" s="137"/>
@@ -17948,7 +17945,7 @@
         <v>270000</v>
       </c>
       <c r="E77" s="319" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F77" s="137"/>
       <c r="G77" s="137"/>
@@ -18068,7 +18065,7 @@
         <v>20530</v>
       </c>
       <c r="E78" s="319" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F78" s="267"/>
       <c r="G78" s="137"/>
@@ -18422,7 +18419,7 @@
         <v>5000</v>
       </c>
       <c r="E81" s="319" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F81" s="131"/>
       <c r="G81" s="137"/>
@@ -18662,7 +18659,7 @@
         <v>35000</v>
       </c>
       <c r="E83" s="319" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F83" s="131"/>
       <c r="G83" s="137"/>
@@ -18780,7 +18777,7 @@
         <v>49140</v>
       </c>
       <c r="E84" s="319" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F84" s="264"/>
       <c r="G84" s="137"/>
@@ -19013,14 +19010,14 @@
         <v>81</v>
       </c>
       <c r="B86" s="324" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C86" s="314"/>
       <c r="D86" s="315">
         <v>7300</v>
       </c>
       <c r="E86" s="316" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F86" s="131"/>
       <c r="G86" s="137"/>
@@ -19131,14 +19128,14 @@
         <v>106</v>
       </c>
       <c r="B87" s="313" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C87" s="314"/>
       <c r="D87" s="315">
         <v>28680</v>
       </c>
       <c r="E87" s="317" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F87" s="131"/>
       <c r="G87" s="137"/>
@@ -19251,14 +19248,14 @@
         <v>106</v>
       </c>
       <c r="B88" s="313" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C88" s="314"/>
       <c r="D88" s="315">
         <v>60580</v>
       </c>
       <c r="E88" s="319" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F88" s="267"/>
       <c r="G88" s="137"/>
@@ -19371,14 +19368,14 @@
         <v>106</v>
       </c>
       <c r="B89" s="313" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C89" s="314"/>
       <c r="D89" s="315">
         <v>40990</v>
       </c>
       <c r="E89" s="319" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F89" s="131"/>
       <c r="G89" s="137"/>
@@ -19488,17 +19485,17 @@
     </row>
     <row r="90" spans="1:97">
       <c r="A90" s="325" t="s">
+        <v>219</v>
+      </c>
+      <c r="B90" s="313" t="s">
         <v>220</v>
-      </c>
-      <c r="B90" s="313" t="s">
-        <v>221</v>
       </c>
       <c r="C90" s="314"/>
       <c r="D90" s="315">
         <v>32510</v>
       </c>
       <c r="E90" s="316" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F90" s="131"/>
       <c r="G90" s="137"/>
@@ -19598,17 +19595,17 @@
     </row>
     <row r="91" spans="1:97">
       <c r="A91" s="325" t="s">
+        <v>225</v>
+      </c>
+      <c r="B91" s="313" t="s">
         <v>226</v>
-      </c>
-      <c r="B91" s="313" t="s">
-        <v>227</v>
       </c>
       <c r="C91" s="314"/>
       <c r="D91" s="315">
         <v>22740</v>
       </c>
       <c r="E91" s="316" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F91" s="137"/>
       <c r="G91" s="137"/>
@@ -19709,14 +19706,14 @@
     <row r="92" spans="1:97">
       <c r="A92" s="312"/>
       <c r="B92" s="313" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C92" s="314"/>
       <c r="D92" s="315">
         <v>4580</v>
       </c>
       <c r="E92" s="317" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F92" s="267"/>
       <c r="G92" s="137"/>
@@ -19817,14 +19814,14 @@
     <row r="93" spans="1:97">
       <c r="A93" s="312"/>
       <c r="B93" s="313" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C93" s="314"/>
       <c r="D93" s="315">
         <v>15080</v>
       </c>
       <c r="E93" s="319" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F93" s="131"/>
       <c r="G93" s="137"/>
@@ -21976,7 +21973,7 @@
         <v>330</v>
       </c>
       <c r="E114" s="178" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F114" s="137"/>
       <c r="G114" s="137"/>
@@ -22520,7 +22517,7 @@
       <c r="C119" s="378"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
-        <v>3210530</v>
+        <v>3186400</v>
       </c>
       <c r="E119" s="204"/>
       <c r="F119" s="137"/>
@@ -22727,7 +22724,7 @@
       <c r="C121" s="367"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
-        <v>3210530</v>
+        <v>3186400</v>
       </c>
       <c r="E121" s="204"/>
       <c r="F121" s="137"/>
@@ -33960,7 +33957,7 @@
   </sheetPr>
   <dimension ref="A1:Y206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -34003,7 +34000,7 @@
     </row>
     <row r="3" spans="1:25" ht="23.25">
       <c r="A3" s="385" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" s="386"/>
       <c r="C3" s="386"/>
@@ -34233,7 +34230,7 @@
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" s="242">
         <v>-1428738</v>
@@ -34723,7 +34720,7 @@
     </row>
     <row r="26" spans="1:25" ht="21.75">
       <c r="A26" s="246" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="120">
         <v>15540</v>
@@ -34787,14 +34784,14 @@
     </row>
     <row r="28" spans="1:25" ht="21.75">
       <c r="A28" s="246" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="120">
         <v>39000</v>
       </c>
       <c r="C28" s="121"/>
       <c r="D28" s="261" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E28" s="262">
         <v>55660</v>
@@ -34816,14 +34813,14 @@
     </row>
     <row r="29" spans="1:25" ht="21.75">
       <c r="A29" s="246" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29" s="120">
         <v>60580</v>
       </c>
       <c r="C29" s="121"/>
       <c r="D29" s="261" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E29" s="262">
         <v>32510</v>
@@ -34845,14 +34842,14 @@
     </row>
     <row r="30" spans="1:25" ht="21.75">
       <c r="A30" s="246" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" s="120">
         <v>40990</v>
       </c>
       <c r="C30" s="121"/>
       <c r="D30" s="261" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E30" s="262">
         <v>16000</v>
@@ -34874,14 +34871,14 @@
     </row>
     <row r="31" spans="1:25" ht="21.75">
       <c r="A31" s="246" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" s="120">
         <v>28680</v>
       </c>
       <c r="C31" s="121"/>
       <c r="D31" s="261" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" s="262">
         <v>22740</v>
@@ -34903,14 +34900,14 @@
     </row>
     <row r="32" spans="1:25" ht="21.75">
       <c r="A32" s="246" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="120">
         <v>32880</v>
       </c>
       <c r="C32" s="121"/>
       <c r="D32" s="261" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E32" s="262">
         <v>17900</v>
@@ -35000,14 +34997,14 @@
     </row>
     <row r="35" spans="1:25" ht="21.75">
       <c r="A35" s="337" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="338">
         <v>28540</v>
       </c>
       <c r="C35" s="339"/>
       <c r="D35" s="340" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E35" s="341">
         <v>23000</v>
@@ -35035,7 +35032,7 @@
       </c>
       <c r="C36" s="339"/>
       <c r="D36" s="340" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E36" s="341">
         <v>49140</v>
